--- a/Documentos/Grupo Vespertina.xlsx
+++ b/Documentos/Grupo Vespertina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\Taller\Cuarta unidad\Proyecto Pagina web\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\Taller\Cuarta unidad\Proyecto Control Académico\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E95C3C-B441-4CE5-BEC1-C7D164D9BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735E66A-CFC5-4A8E-B77B-335947B5DF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76C075F7-E97E-4495-9387-068F115ED402}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,18 +940,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,18 +973,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE1F961D-9FAE-435A-929F-71B2E8C01E51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31E3EF06-4C8B-4BC2-828F-6652AF505430}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE1F961D-9FAE-435A-929F-71B2E8C01E51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>